--- a/meta/en/5-3-1.xlsx
+++ b/meta/en/5-3-1.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -104,21 +103,6 @@
     <t>5.3.1. Proportion of women aged 20-24 years who were married or in a union before age 15 and before age 18</t>
   </si>
   <si>
-    <t xml:space="preserve"> National Statistical Committee of the Kyrgyz Republic (Household Statistics Division)</t>
-  </si>
-  <si>
-    <t>Kerimalieva N.K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Proportion of women aged 20-24 years who were married or in a union before age 15 and before age 18</t>
   </si>
   <si>
@@ -156,6 +140,21 @@
 http://www.stat.kg/media/files/d0f77c65-07d9-469d-879a-84dc5aae8833.pdf
 Multiple Indicator Cluster Survey, 2018
 Data.unicef.org</t>
+  </si>
+  <si>
+    <t>National Statistical Committee of the Kyrgyz Republic (Department of Household Statistics)</t>
+  </si>
+  <si>
+    <t>Kalymbetova Yryskan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -577,7 +576,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -636,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -644,7 +643,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -652,7 +651,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -660,7 +659,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -674,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -682,7 +681,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -690,7 +689,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -704,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -712,7 +711,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -726,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -734,7 +733,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -742,7 +741,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -756,7 +755,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -764,7 +763,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -772,7 +771,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -780,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
